--- a/ig/32-informations-manquantes-sur-les-contacts/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/32-informations-manquantes-sur-les-contacts/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T15:26:31+00:00</t>
+    <t>2023-09-18T08:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/32-informations-manquantes-sur-les-contacts/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/32-informations-manquantes-sur-les-contacts/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-18T08:18:00+00:00</t>
+    <t>2023-10-03T18:09:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1005,10 +1005,58 @@
 </t>
   </si>
   <si>
-    <t>type de contact : Public ou Scientific</t>
+    <t>Type de contact : Public ou Scientific</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-address</t>
+  </si>
+  <si>
+    <t>eclaire-contact-address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-address}
+</t>
+  </si>
+  <si>
+    <t>Adresse du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer l'adresse du contact</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-affiliation</t>
+  </si>
+  <si>
+    <t>eclaire-contact-affiliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-affiliation}
+</t>
+  </si>
+  <si>
+    <t>Affiliation du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer l'affiliation du contact</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-name</t>
+  </si>
+  <si>
+    <t>eclaire-contact-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-name}
+</t>
+  </si>
+  <si>
+    <t>Nom du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le nom de contact</t>
   </si>
   <si>
     <t>ResearchStudy.contact.name</t>
@@ -1748,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1757,7 +1805,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.40234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7310,9 +7358,11 @@
         <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>37</v>
       </c>
@@ -7324,26 +7374,24 @@
         <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7392,19 +7440,19 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>322</v>
+        <v>163</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
@@ -7413,7 +7461,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7427,9 +7475,11 @@
         <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7438,25 +7488,25 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7507,7 +7557,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7519,16 +7569,16 @@
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7539,12 +7589,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>37</v>
       </c>
@@ -7553,7 +7605,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7565,17 +7617,15 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7624,7 +7674,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7636,19 +7686,19 @@
         <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7656,10 +7706,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7670,7 +7720,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7682,16 +7732,16 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7717,10 +7767,10 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>37</v>
@@ -7741,13 +7791,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>59</v>
@@ -7756,16 +7806,16 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7773,10 +7823,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7790,7 +7840,7 @@
         <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
@@ -7799,17 +7849,15 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -7834,13 +7882,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -7858,7 +7906,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7870,16 +7918,16 @@
         <v>59</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -7890,10 +7938,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7904,10 +7952,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -7916,16 +7964,16 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7975,13 +8023,13 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>59</v>
@@ -7990,7 +8038,7 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
@@ -7999,7 +8047,7 @@
         <v>68</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8007,14 +8055,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>358</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8024,7 +8072,7 @@
         <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>37</v>
@@ -8033,16 +8081,16 @@
         <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8068,10 +8116,10 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>37</v>
@@ -8092,7 +8140,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8104,44 +8152,44 @@
         <v>59</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>368</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>37</v>
@@ -8150,16 +8198,16 @@
         <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8185,13 +8233,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8209,42 +8257,42 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>375</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8264,19 +8312,19 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8326,7 +8374,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8338,44 +8386,44 @@
         <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>382</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
@@ -8384,16 +8432,16 @@
         <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8443,13 +8491,13 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>59</v>
@@ -8458,41 +8506,41 @@
         <v>224</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>
@@ -8501,16 +8549,16 @@
         <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8560,42 +8608,42 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>387</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8609,7 +8657,7 @@
         <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
@@ -8618,16 +8666,16 @@
         <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8653,13 +8701,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8677,7 +8725,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8689,30 +8737,30 @@
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8723,7 +8771,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8732,19 +8780,19 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>249</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8794,42 +8842,42 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>37</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8843,24 +8891,26 @@
         <v>36</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -8909,7 +8959,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8921,30 +8971,30 @@
         <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>68</v>
+        <v>403</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>37</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8964,18 +9014,20 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>157</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9000,13 +9052,13 @@
         <v>37</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>37</v>
@@ -9024,7 +9076,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9033,37 +9085,37 @@
         <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>37</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9082,16 +9134,16 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>95</v>
+        <v>421</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>96</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>162</v>
+        <v>423</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>98</v>
+        <v>424</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9129,19 +9181,19 @@
         <v>37</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>163</v>
+        <v>420</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9153,16 +9205,16 @@
         <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>61</v>
+        <v>426</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9173,14 +9225,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9193,26 +9245,22 @@
         <v>37</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9260,7 +9308,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9272,19 +9320,19 @@
         <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>37</v>
+        <v>432</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
@@ -9292,10 +9340,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9303,7 +9351,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>47</v>
@@ -9321,14 +9369,12 @@
         <v>156</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>157</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
@@ -9377,22 +9423,22 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>159</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
@@ -9401,7 +9447,7 @@
         <v>68</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9409,21 +9455,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>37</v>
@@ -9435,16 +9481,16 @@
         <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>431</v>
+        <v>96</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>432</v>
+        <v>162</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9482,43 +9528,43 @@
         <v>37</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>430</v>
+        <v>163</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>433</v>
+        <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>277</v>
+        <v>61</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9533,37 +9579,39 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>37</v>
       </c>
@@ -9611,31 +9659,31 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>37</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9654,10 +9702,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
@@ -9669,7 +9717,7 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>441</v>
@@ -9677,7 +9725,9 @@
       <c r="M68" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -9729,10 +9779,10 @@
         <v>440</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>59</v>
@@ -9750,7 +9800,7 @@
         <v>68</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>37</v>
@@ -9758,10 +9808,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9784,15 +9834,17 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>157</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -9841,7 +9893,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -9850,22 +9902,22 @@
         <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>37</v>
@@ -9873,21 +9925,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>37</v>
@@ -9899,16 +9951,16 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>96</v>
+        <v>451</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>162</v>
+        <v>452</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9946,43 +9998,43 @@
         <v>37</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>37</v>
@@ -9990,14 +10042,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10010,26 +10062,22 @@
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>37</v>
       </c>
@@ -10077,7 +10125,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10089,16 +10137,16 @@
         <v>59</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>37</v>
+        <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -10109,10 +10157,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10138,14 +10186,12 @@
         <v>156</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>157</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>37</v>
@@ -10194,7 +10240,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>159</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10203,13 +10249,13 @@
         <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
@@ -10226,21 +10272,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -10252,16 +10298,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
+        <v>96</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>453</v>
+        <v>162</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10287,62 +10333,415 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>454</v>
+        <v>37</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>163</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AK75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO73" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10352,7 +10751,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/32-informations-manquantes-sur-les-contacts/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/32-informations-manquantes-sur-les-contacts/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T18:09:23+00:00</t>
+    <t>2023-10-04T06:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/32-informations-manquantes-sur-les-contacts/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/32-informations-manquantes-sur-les-contacts/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T06:13:04+00:00</t>
+    <t>2023-10-04T13:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
